--- a/Etapa Elaboración - Iteración 2/Estimacion 03 Caso Optimista - Kairos - NexTech.xlsx
+++ b/Etapa Elaboración - Iteración 2/Estimacion 03 Caso Optimista - Kairos - NexTech.xlsx
@@ -1,65 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\Laboratorio de Desarrollo de Software\Estimaciones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDBD66F-FD42-4CD0-8B8B-7FCCA7967F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Plantilla" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="0">1</definedName>
-    <definedName name="solver_neg" localSheetId="0">1</definedName>
-    <definedName name="solver_num" localSheetId="0">0</definedName>
-    <definedName name="solver_opt" localSheetId="0">Plantilla!$D$72</definedName>
-    <definedName name="solver_typ" localSheetId="0">1</definedName>
-    <definedName name="solver_val" localSheetId="0">0</definedName>
-    <definedName name="solver_ver" localSheetId="0">3</definedName>
+    <definedName localSheetId="0" name="solver_eng">1</definedName>
+    <definedName localSheetId="0" name="solver_neg">1</definedName>
+    <definedName localSheetId="0" name="solver_num">0</definedName>
+    <definedName localSheetId="0" name="solver_typ">1</definedName>
+    <definedName localSheetId="0" name="solver_val">0</definedName>
+    <definedName localSheetId="0" name="solver_ver">3</definedName>
+    <definedName localSheetId="0" name="solver_opt">Plantilla!$D$72</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SWAJeu99gVz7s+N54TR/eVml9nvFlCzh+/aVSIUqAfQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hP/g03lzba9R0nhyIGI/iWod3VHLzDp46DrIUxxm4WM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment authorId="0" ref="B46">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
+        <t xml:space="preserve">======
+ID#AAABrntIk4A
+Autor    (2023-08-29 20:18:46)
+¿Hace falta consideraciones especiales para el acceso concurrente (paralelo) a datos y otros recursos?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B57">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4I
+Autor    (2023-08-29 20:18:46)
+Se refiere exclusivamente a la experiencia en el análisis, modelado, diseño y progrmación  mediante el paradigma de OO.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B58">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4E
+Autor    (2023-08-29 20:18:46)
+Se refiere a la experiencia en el análisis de requerimientos y modelado orientado a objetos del Analista Principal.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B81">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4Q
+Autor    (2023-08-29 20:18:46)
+Análisis/Diseño/Pruebas/Sobrecarga</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B61">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk30
+Autor    (2023-08-29 20:18:46)
+Este es un factor con signo opuesto a los factores E6 y anteriores. Cuanto mayor la evaluación, peor el resultado.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C15">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4M
+Ejemplo    (2023-08-29 20:18:46)
+contar transacciones
+Flujo.Ppal.: transacciones 1, 2, 3, 4. 
+Flujo Alt.: 0 transaccioines. 
+Excepciones.: N/A -&gt; 0 transacciones
+-&gt; suma = 4 transacciones</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B55">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk3w
+Autor    (2023-08-29 20:18:46)
+Debe reflejar el hecho de que el equipo conoce el proceso y el lenguaje de modelado (p.ej.: RUP, UML). Puede ser cualquier otro proceso.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B59">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4Y
+Autor    (2023-08-29 20:18:46)
+Motivación del equipo.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B84">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk38
+Autor    (2023-08-29 20:18:46)
+Lo debe sugerir el estimador.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B42">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4U
+Autor    (2023-08-29 20:18:46)
+¿La aplicación debe ser de fácil instalación (para usuarios sin capacidad técnica) o no?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B39">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk34
+Autor    (2023-08-29 20:18:46)
+¿La aplicacion está diseñada para que el usuario incremente SU eficiencia (no solo cumpla su cometido)?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B62">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk5A
+Autor    (2023-08-29 20:18:46)
+Este es un factor con signo opuesto a los factores E6 y anteriores. Cuanto mayor la evaluación, peor el resultado.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C7">
+      <text>
+        <t xml:space="preserve">======
 ID#AAABrntIk5I
 Autor    (2023-08-29 20:18:46)
 Complejo: =3
@@ -69,436 +141,127 @@
   - Operador humano a través de interfaz de comandos de texto (CLI)
 Simple: -&gt; 1
   - Otro sistema a través de una Interfaz de Programación de Aplicaciones (API)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment authorId="0" ref="B41">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4M
-Ejemplo    (2023-08-29 20:18:46)
-contar transacciones
-Flujo.Ppal.: transacciones 1, 2, 3, 4. 
-Flujo Alt.: 0 transaccioines. 
-Excepciones.: N/A -&gt; 0 transacciones
--&gt; suma = 4 transacciones</t>
-        </r>
+        <t xml:space="preserve">======
+ID#AAABrntIk4g
+Autor    (2023-08-29 20:18:46)
+¿La aplicación requiere diseñarse para ser altamente reusable?</t>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment authorId="0" ref="B44">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
+        <t xml:space="preserve">======
+ID#AAABrntIk5E
+Autor    (2023-08-29 20:18:46)
+¿La aplicación, debe funcionar en más de una plataforma?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B38">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4c
+Autor    (2023-08-29 20:18:46)
+¿Cuál es la importancia del tiempo de respuesta de la aplicación para el usuario final?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B60">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk5Q
+Autor    (2023-08-29 20:18:46)
+Evalúa si los analistas han sido capaces de mantener estables los requerimientos en el pasado, minimizando los cambios del software.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B45">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk40
+Autor    (2023-08-29 20:18:46)
+¿El cliente requiere que la aplicación se pueda cambiar fácilmente en el futuro?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B43">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4o
+Autor    (2023-08-29 20:18:46)
+¿Hay requerimientos especiales respecto de la facilidad de uso?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37">
+      <text>
+        <t xml:space="preserve">======
 ID#AAABrntIk5M
 Autor    (2023-08-29 20:18:46)
 ¿Arquitectura centralizada o distribuida?</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment authorId="0" ref="B49">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4c
+        <t xml:space="preserve">======
+ID#AAABrntIk4k
 Autor    (2023-08-29 20:18:46)
-¿Cuál es la importancia del tiempo de respuesta de la aplicación para el usuario final?</t>
-        </r>
+¿Se requiere formación específica para los Usuarios?</t>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment authorId="0" ref="B78">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk34
+        <t xml:space="preserve">======
+ID#AAABrntIk5Y
 Autor    (2023-08-29 20:18:46)
-¿La aplicacion está diseñada para que el usuario incremente SU eficiencia (no solo cumpla su cometido)?</t>
-        </r>
+Esta distribución es una referencia. Proyecto a proyecto debe actualizarse mediante  ESTADISTICAS.</t>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment authorId="0" ref="B48">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4s
-Autor    (2023-08-29 20:18:46)
-¿La aplicación requiere de algoritmos complejos?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4g
-Autor    (2023-08-29 20:18:46)
-¿La aplicación requiere diseñarse para ser altamente reusable?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4U
-Autor    (2023-08-29 20:18:46)
-¿La aplicación debe ser de fácil instalación (para usuarios sin capacidad técnica) o no?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4o
-Autor    (2023-08-29 20:18:46)
-¿Hay requerimientos especiales respecto de la facilidad de uso?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk5E
-Autor    (2023-08-29 20:18:46)
-¿La aplicación, debe funcionar en más de una plataforma?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk40
-Autor    (2023-08-29 20:18:46)
-¿El cliente requiere que la aplicación se pueda cambiar fácilmente en el futuro?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4A
-Autor    (2023-08-29 20:18:46)
-¿Hace falta consideraciones especiales para el acceso concurrente (paralelo) a datos y otros recursos?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk44
-Autor    (2023-08-29 20:18:46)
-¿Es suficiente con las prestaciones de seguridad normales, o hace falta algo especial?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
+        <t xml:space="preserve">======
 ID#AAABrntIk48
 Autor    (2023-08-29 20:18:46)
 ¿Nuestro código usará componentes COTS, librerías frameworks ya desarrollados? Si así fuera, reducirá la carga de trabajo de desarrollo.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment authorId="0" ref="G72">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4k
-Autor    (2023-08-29 20:18:46)
-¿Se requiere formación específica para los Usuarios?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk3w
-Autor    (2023-08-29 20:18:46)
-Debe reflejar el hecho de que el equipo conoce el proceso y el lenguaje de modelado (p.ej.: RUP, UML). Puede ser cualquier otro proceso.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk5U
-Autor    (2023-08-29 20:18:46)
-¿Ya trabajado el equipo en el area (dominio) de la aplicación?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4I
-Autor    (2023-08-29 20:18:46)
-Se refiere exclusivamente a la experiencia en el análisis, modelado, diseño y progrmación  mediante el paradigma de OO.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4E
-Autor    (2023-08-29 20:18:46)
-Se refiere a la experiencia en el análisis de requerimientos y modelado orientado a objetos del Analista Principal.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4Y
-Autor    (2023-08-29 20:18:46)
-Motivación del equipo.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk5Q
-Autor    (2023-08-29 20:18:46)
-Evalúa si los analistas han sido capaces de mantener estables los requerimientos en el pasado, minimizando los cambios del software.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk30
-Autor    (2023-08-29 20:18:46)
-Este es un factor con signo opuesto a los factores E6 y anteriores. Cuanto mayor la evaluación, peor el resultado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk5A
-Autor    (2023-08-29 20:18:46)
-Este es un factor con signo opuesto a los factores E6 y anteriores. Cuanto mayor la evaluación, peor el resultado.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
+        <t xml:space="preserve">======
 ID#AAABrntIk4w
 Autor    (2023-08-29 20:18:46)
 Este valor lo debe rellenar el propio estimador mediante una medición pequeña que se use como muestra. 
 Como valor orientativo
 Java15 (07/2020), muy principiante, autodidacta -&gt;2.5hh/AUCP
 Es una Estadística que debe actualizarse proyecto a proyecto.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment authorId="0" ref="B56">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk5Y
+        <t xml:space="preserve">======
+ID#AAABrntIk5U
 Autor    (2023-08-29 20:18:46)
-Esta distribución es una referencia. Proyecto a proyecto debe actualizarse mediante  ESTADISTICAS.</t>
-        </r>
+¿Ya trabajado el equipo en el area (dominio) de la aplicación?</t>
       </text>
     </comment>
-    <comment ref="B81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment authorId="0" ref="B47">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk4Q
+        <t xml:space="preserve">======
+ID#AAABrntIk44
 Autor    (2023-08-29 20:18:46)
-Análisis/Diseño/Pruebas/Sobrecarga</t>
-        </r>
+¿Es suficiente con las prestaciones de seguridad normales, o hace falta algo especial?</t>
       </text>
     </comment>
-    <comment ref="B84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment authorId="0" ref="B40">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABrntIk38
+        <t xml:space="preserve">======
+ID#AAABrntIk4s
 Autor    (2023-08-29 20:18:46)
-Lo debe sugerir el estimador.</t>
-        </r>
+¿La aplicación requiere de algoritmos complejos?</t>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mghIruL3+L1NfrlYBAUEgPv/FK5rA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mide9n2xa2635HpgNBnaaWfXGJhPw=="/>
     </ext>
   </extLst>
 </comments>
@@ -644,19 +407,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Puntos de CU No Ajustados: </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t>UUCP = UAW + UUCW</t>
     </r>
@@ -766,19 +529,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Factor de Complejidad Técnica:  </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">TCF = 0,06 + 0,01*TC </t>
     </r>
@@ -802,40 +565,64 @@
     <t>0 = sin experiencia, 3=media, 5=experto</t>
   </si>
   <si>
+    <t>El equipo se considera experto en el proceso definido</t>
+  </si>
+  <si>
     <t>Ver 4.2 Use Case Point Analysis e17</t>
   </si>
   <si>
     <t>E2 Experiencia en el Dominio de Aplicación</t>
   </si>
   <si>
+    <t>El equipo de desarrollo tiene una experiencia alta en cuanto al Dominio de Aplicación</t>
+  </si>
+  <si>
     <t>E3 Experiencia en Orientación a Objetos</t>
   </si>
   <si>
+    <t>El equipo cuenta con la experiencia en POO elevada</t>
+  </si>
+  <si>
     <t>E4 Capacidad de Liderazgo del  Analista Principal</t>
   </si>
   <si>
+    <t>El equipo tiene un alto analisis de requerimientos y modelado OO</t>
+  </si>
+  <si>
     <t>E5 Motivación</t>
   </si>
   <si>
     <t>0=sin, 3=media, 5=alta</t>
   </si>
   <si>
+    <t>El equipo tiene una motivación alta</t>
+  </si>
+  <si>
     <t>E6 Requerimientos Estables</t>
   </si>
   <si>
     <t>0=extremadamente inestable, 5=no cambian</t>
   </si>
   <si>
+    <t>Los requerimientos son estables</t>
+  </si>
+  <si>
     <t>E7 Miembros a Tiempo Parcial</t>
   </si>
   <si>
     <t>0=0% tiempo parcial, 1=h/10% t. parcial, 2=h/20% t. parcial, 3=h/40% t. parcial, 4=h/60% t. parcial, 5= más de 60% t. parcial</t>
   </si>
   <si>
+    <t>Todos los miembros trabajaran full time</t>
+  </si>
+  <si>
     <t>E8 Dificultad con el lenguaje de Programación</t>
   </si>
   <si>
     <t>0=todos miembros muy experimentados. 1= Mayoría +2años experiencia. 2. Todos +18 meses experiencia 3. Mayoría +18 meses experiencia 4. Pocos hasta 1 año experiencia 5. Ninguno experiencia</t>
+  </si>
+  <si>
+    <t>Todos los miembros tienen + 3 años de experiencia en el area</t>
   </si>
   <si>
     <t xml:space="preserve">Factores Ambientales: EF = ∑ (Peso * Evaluacion ) </t>
@@ -843,19 +630,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Factor de Complejidad Ambiental: </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t>ECF = 1.4 + (-0.03*EF)</t>
     </r>
@@ -869,19 +656,19 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Puntos de Casos de Uso Ajustados: AUCP = </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <sz val="12.0"/>
       </rPr>
       <t>UUCP * TCF * ECF</t>
     </r>
@@ -957,114 +744,81 @@
   <si>
     <t>Propia
 (m)</t>
-  </si>
-  <si>
-    <t>El equipo se considera experto en el proceso definido</t>
-  </si>
-  <si>
-    <t>El equipo de desarrollo tiene una experiencia alta en cuanto al Dominio de Aplicación</t>
-  </si>
-  <si>
-    <t>El equipo cuenta con la experiencia en POO elevada</t>
-  </si>
-  <si>
-    <t>El equipo tiene un alto analisis de requerimientos y modelado OO</t>
-  </si>
-  <si>
-    <t>El equipo tiene una motivación alta</t>
-  </si>
-  <si>
-    <t>Los requerimientos son estables</t>
-  </si>
-  <si>
-    <t>Todos los miembros tienen + 3 años de experiencia en el area</t>
-  </si>
-  <si>
-    <t>Todos los miembros trabajaran full time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="16.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1073,7 +827,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1100,40 +854,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="15">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1143,56 +885,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1207,14 +930,12 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1223,7 +944,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1236,7 +956,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1245,11 +964,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1262,263 +979,248 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1529,57 +1231,39 @@
     <xdr:ext cx="4714875" cy="2667000"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="590550" y="28153702"/>
+          <a:off x="2988563" y="2446500"/>
           <a:ext cx="4714875" cy="2667000"/>
           <a:chOff x="2988563" y="2446500"/>
-          <a:chExt cx="4715262" cy="2667360"/>
+          <a:chExt cx="4714875" cy="2667000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Shape 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="2988563" y="2446500"/>
-            <a:ext cx="4715262" cy="2667360"/>
-            <a:chOff x="599760" y="24144120"/>
-            <a:chExt cx="4382280" cy="2667600"/>
+            <a:ext cx="4714875" cy="2667000"/>
+            <a:chOff x="2988563" y="2446500"/>
+            <a:chExt cx="4715262" cy="2667360"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Shape 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="4" name="Shape 4"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="599760" y="24144120"/>
-              <a:ext cx="4381900" cy="2667225"/>
+              <a:off x="2988563" y="2446500"/>
+              <a:ext cx="4715250" cy="2667350"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1590,12 +1274,12 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+            <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
               <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+              <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
                 <a:spcBef>
                   <a:spcPts val="0"/>
                 </a:spcBef>
@@ -1604,41 +1288,94 @@
                 </a:spcAft>
                 <a:buNone/>
               </a:pPr>
+              <a:r>
+                <a:t/>
+              </a:r>
               <a:endParaRPr sz="1400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="5" name="Shape 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="5" name="Shape 5"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="599760" y="24144120"/>
-              <a:ext cx="4382280" cy="2667600"/>
+              <a:off x="2988563" y="2446500"/>
+              <a:ext cx="4715262" cy="2667360"/>
+              <a:chOff x="599760" y="24144120"/>
+              <a:chExt cx="4382280" cy="2667600"/>
             </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4A7DBA"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-              <a:headEnd type="none" w="sm" len="sm"/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:cxnSp>
+          </xdr:grpSpPr>
+          <xdr:sp>
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6" name="Shape 6"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="599760" y="24144120"/>
+                <a:ext cx="4381900" cy="2667225"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buSzPts val="1400"/>
+                  <a:buFont typeface="Arial"/>
+                  <a:buNone/>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp>
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="7" name="Shape 7"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="599760" y="24144120"/>
+                <a:ext cx="4382280" cy="2667600"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln cap="flat" cmpd="sng" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4A7DBA"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+                <a:headEnd len="sm" w="sm" type="none"/>
+                <a:tailEnd len="med" w="med" type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:cxnSp>
+        </xdr:grpSp>
       </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
@@ -1647,7 +1384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1837,35 +1574,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="26" width="9.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="32.38"/>
+    <col customWidth="1" min="2" max="2" width="42.13"/>
+    <col customWidth="1" min="3" max="3" width="33.38"/>
+    <col customWidth="1" min="4" max="4" width="38.63"/>
+    <col customWidth="1" min="5" max="5" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="16.13"/>
+    <col customWidth="1" min="7" max="7" width="16.75"/>
+    <col customWidth="1" min="8" max="8" width="34.38"/>
+    <col customWidth="1" min="9" max="9" width="10.63"/>
+    <col customWidth="1" min="10" max="10" width="13.75"/>
+    <col customWidth="1" min="11" max="26" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="27.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1893,17 +1628,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="27.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1923,19 +1658,19 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="27.75" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1955,19 +1690,19 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1987,15 +1722,15 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="27.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2015,7 +1750,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="27.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2043,68 +1778,68 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="24">
         <f>IF(C8="Simple",1,IF(C8="Intermedio",2,IF(C8="Complejo",3,"error")))</f>
         <v>3</v>
       </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
-        <v>1</v>
+      <c r="F8" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1.0</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2126,25 +1861,25 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="27.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21">
-        <v>3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>1</v>
+      <c r="E9" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1.0</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2166,25 +1901,25 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="27.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
+      <c r="E10" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1.0</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2206,26 +1941,26 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="27.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="24">
         <f>IF(C11="Simple",1,IF(C11="Intermedio",2,IF(C11="Complejo",3,"error")))</f>
         <v>3</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
+      <c r="F11" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1.0</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2247,16 +1982,16 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="27.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="69" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="27">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="30">
         <f>SUM(G8:G11)</f>
         <v>4</v>
       </c>
@@ -2280,15 +2015,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="27.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2308,15 +2043,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="27.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2336,27 +2071,27 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" ht="27.75" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2376,25 +2111,25 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="27.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="32">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21" t="str">
-        <f t="shared" ref="E16:E19" si="0">IF($D16&gt;0,IF($D16&lt;=3,"Simple",IF(AND($D16&gt;3,$D16&lt;7),"Intermedio",IF($D16&gt;=7,"Complejo","error"))),"-")</f>
+      <c r="C16" s="21"/>
+      <c r="D16" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="24" t="str">
+        <f t="shared" ref="E16:E19" si="1">IF($D16&gt;0,IF($D16&lt;=3,"Simple",IF(AND($D16&gt;3,$D16&lt;7),"Intermedio",IF($D16&gt;=7,"Complejo","error"))),"-")</f>
         <v>Simple</v>
       </c>
-      <c r="F16" s="21">
-        <f t="shared" ref="F16:F19" si="1">IF($D16&gt;0,IF($D16&lt;=3,5,IF(AND($D16&gt;3,$D16&lt;7),10,IF($D16&gt;=7,15,"error"))),0)</f>
+      <c r="F16" s="24">
+        <f t="shared" ref="F16:F19" si="2">IF($D16&gt;0,IF($D16&lt;=3,5,IF(AND($D16&gt;3,$D16&lt;7),10,IF($D16&gt;=7,15,"error"))),0)</f>
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2406,7 +2141,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="33"/>
+      <c r="T16" s="36"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2414,28 +2149,28 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="32">
-        <v>6</v>
-      </c>
-      <c r="E17" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>Intermedio</v>
       </c>
-      <c r="F17" s="21">
-        <f t="shared" si="1"/>
+      <c r="F17" s="24">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="33"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2444,7 +2179,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="33"/>
+      <c r="T17" s="36"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -2452,28 +2187,28 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="32">
-        <v>2</v>
-      </c>
-      <c r="E18" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>Simple</v>
       </c>
-      <c r="F18" s="21">
-        <f t="shared" si="1"/>
+      <c r="F18" s="24">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="33"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2482,7 +2217,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="33"/>
+      <c r="T18" s="36"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -2490,28 +2225,28 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="27.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35">
-        <v>6</v>
-      </c>
-      <c r="E19" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38">
+        <v>6.0</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <f t="shared" si="1"/>
         <v>Intermedio</v>
       </c>
-      <c r="F19" s="21">
-        <f t="shared" si="1"/>
+      <c r="F19" s="24">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="33"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2520,7 +2255,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="33"/>
+      <c r="T19" s="36"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -2528,26 +2263,26 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="27.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="21">
-        <v>5</v>
+      <c r="F20" s="24">
+        <v>5.0</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="33"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2556,7 +2291,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="33"/>
+      <c r="T20" s="36"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2564,28 +2299,28 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="27.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35">
-        <v>3</v>
-      </c>
-      <c r="E21" s="21" t="str">
-        <f t="shared" ref="E21:E23" si="2">IF($D21&gt;0,IF($D21&lt;=3,"Simple",IF(AND($D21&gt;3,$D21&lt;7),"Intermedio",IF($D21&gt;=7,"Complejo","error"))),"-")</f>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E21" s="24" t="str">
+        <f t="shared" ref="E21:E23" si="3">IF($D21&gt;0,IF($D21&lt;=3,"Simple",IF(AND($D21&gt;3,$D21&lt;7),"Intermedio",IF($D21&gt;=7,"Complejo","error"))),"-")</f>
         <v>Simple</v>
       </c>
-      <c r="F21" s="21">
-        <f t="shared" ref="F21:F23" si="3">IF($D21&gt;0,IF($D21&lt;=3,5,IF(AND($D21&gt;3,$D21&lt;7),10,IF($D21&gt;=7,15,"error"))),0)</f>
+      <c r="F21" s="24">
+        <f t="shared" ref="F21:F23" si="4">IF($D21&gt;0,IF($D21&lt;=3,5,IF(AND($D21&gt;3,$D21&lt;7),10,IF($D21&gt;=7,15,"error"))),0)</f>
         <v>5</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="33"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2594,7 +2329,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="33"/>
+      <c r="T21" s="36"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2602,28 +2337,28 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="27.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35">
-        <v>3</v>
-      </c>
-      <c r="E22" s="21" t="str">
-        <f t="shared" si="2"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Simple</v>
       </c>
-      <c r="F22" s="21">
-        <f t="shared" si="3"/>
+      <c r="F22" s="24">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="33"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2632,7 +2367,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="33"/>
+      <c r="T22" s="36"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2640,28 +2375,28 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="27.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35">
-        <v>10</v>
-      </c>
-      <c r="E23" s="21" t="str">
-        <f t="shared" si="2"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="24" t="str">
+        <f t="shared" si="3"/>
         <v>Complejo</v>
       </c>
-      <c r="F23" s="21">
-        <f t="shared" si="3"/>
+      <c r="F23" s="24">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="33"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2670,7 +2405,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="33"/>
+      <c r="T23" s="36"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -2678,26 +2413,26 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="27.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35">
-        <v>4</v>
-      </c>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="21">
-        <v>10</v>
+      <c r="F24" s="24">
+        <v>10.0</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="33"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2706,7 +2441,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="33"/>
+      <c r="T24" s="36"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -2714,28 +2449,28 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="27.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35">
-        <v>4</v>
-      </c>
-      <c r="E25" s="21" t="str">
-        <f t="shared" ref="E25:E29" si="4">IF($D25&gt;0,IF($D25&lt;=3,"Simple",IF(AND($D25&gt;3,$D25&lt;7),"Intermedio",IF($D25&gt;=7,"Complejo","error"))),"-")</f>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="24" t="str">
+        <f t="shared" ref="E25:E29" si="5">IF($D25&gt;0,IF($D25&lt;=3,"Simple",IF(AND($D25&gt;3,$D25&lt;7),"Intermedio",IF($D25&gt;=7,"Complejo","error"))),"-")</f>
         <v>Intermedio</v>
       </c>
-      <c r="F25" s="21">
-        <f t="shared" ref="F25:F29" si="5">IF($D25&gt;0,IF($D25&lt;=3,5,IF(AND($D25&gt;3,$D25&lt;7),10,IF($D25&gt;=7,15,"error"))),0)</f>
+      <c r="F25" s="24">
+        <f t="shared" ref="F25:F29" si="6">IF($D25&gt;0,IF($D25&lt;=3,5,IF(AND($D25&gt;3,$D25&lt;7),10,IF($D25&gt;=7,15,"error"))),0)</f>
         <v>10</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="33"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2744,7 +2479,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="33"/>
+      <c r="T25" s="36"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -2752,28 +2487,28 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="27.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35">
-        <v>3</v>
-      </c>
-      <c r="E26" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="24" t="str">
+        <f t="shared" si="5"/>
         <v>Simple</v>
       </c>
-      <c r="F26" s="21">
-        <f t="shared" si="5"/>
+      <c r="F26" s="24">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="33"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2782,7 +2517,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="33"/>
+      <c r="T26" s="36"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -2790,28 +2525,28 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="27.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35">
-        <v>3</v>
-      </c>
-      <c r="E27" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="24" t="str">
+        <f t="shared" si="5"/>
         <v>Simple</v>
       </c>
-      <c r="F27" s="21">
-        <f t="shared" si="5"/>
+      <c r="F27" s="24">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="33"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2820,7 +2555,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="33"/>
+      <c r="T27" s="36"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -2828,28 +2563,28 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="27.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="35">
-        <v>4</v>
-      </c>
-      <c r="E28" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="E28" s="24" t="str">
+        <f t="shared" si="5"/>
         <v>Intermedio</v>
       </c>
-      <c r="F28" s="21">
-        <f t="shared" si="5"/>
+      <c r="F28" s="24">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="33"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2858,7 +2593,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="33"/>
+      <c r="T28" s="36"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -2866,28 +2601,28 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="27.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35">
-        <v>3</v>
-      </c>
-      <c r="E29" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="24" t="str">
+        <f t="shared" si="5"/>
         <v>Simple</v>
       </c>
-      <c r="F29" s="21">
-        <f t="shared" si="5"/>
+      <c r="F29" s="24">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="33"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2896,7 +2631,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="33"/>
+      <c r="T29" s="36"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -2904,15 +2639,15 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="27.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="37">
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43">
         <f>SUM(F16:F29)</f>
         <v>105</v>
       </c>
@@ -2920,7 +2655,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="33"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2929,7 +2664,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="33"/>
+      <c r="T30" s="36"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -2937,7 +2672,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="27.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2945,10 +2680,10 @@
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="33"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2965,7 +2700,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="27.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2993,17 +2728,17 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="69" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="27">
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="30">
         <f>G12+F30</f>
         <v>109</v>
       </c>
@@ -3028,7 +2763,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="27.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3036,7 +2771,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3056,7 +2791,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="27.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
@@ -3084,26 +2819,26 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    <row r="36" ht="27.75" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H36" s="1"/>
@@ -3126,71 +2861,71 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="27.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="41">
-        <v>2</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="42">
-        <f t="shared" ref="G37:G49" si="6">E37*F37</f>
+      <c r="E37" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="48">
+        <f t="shared" ref="G37:G49" si="7">E37*F37</f>
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-    </row>
-    <row r="38" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+    </row>
+    <row r="38" ht="27.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="42">
-        <v>2</v>
-      </c>
-      <c r="F38" s="22">
-        <v>5</v>
-      </c>
-      <c r="G38" s="42">
-        <f t="shared" si="6"/>
+      <c r="E38" s="48">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G38" s="48">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="50" t="s">
         <v>58</v>
       </c>
       <c r="I38" s="1"/>
@@ -3212,23 +2947,23 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="27.0" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="42">
-        <v>1</v>
-      </c>
-      <c r="F39" s="22">
-        <v>5</v>
-      </c>
-      <c r="G39" s="42">
-        <f t="shared" si="6"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G39" s="48">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H39" s="1"/>
@@ -3251,25 +2986,25 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="27.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="42">
-        <v>1</v>
-      </c>
-      <c r="F40" s="22">
-        <v>3</v>
-      </c>
-      <c r="G40" s="42">
-        <f t="shared" si="6"/>
+      <c r="E40" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="G40" s="48">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H40" s="1"/>
@@ -3292,25 +3027,25 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="30.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
-      <c r="G41" s="42">
-        <f t="shared" si="6"/>
+      <c r="E41" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="48">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H41" s="1"/>
@@ -3333,25 +3068,25 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="27.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="47">
         <v>0.5</v>
       </c>
-      <c r="F42" s="22">
-        <v>3</v>
-      </c>
-      <c r="G42" s="42">
-        <f t="shared" si="6"/>
+      <c r="F42" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="48">
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="H42" s="1"/>
@@ -3374,25 +3109,25 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="27.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="47">
         <v>0.5</v>
       </c>
-      <c r="F43" s="22">
-        <v>5</v>
-      </c>
-      <c r="G43" s="42">
-        <f t="shared" si="6"/>
+      <c r="F43" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="48">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="H43" s="1"/>
@@ -3415,25 +3150,25 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="27.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="41">
-        <v>2</v>
-      </c>
-      <c r="F44" s="22">
-        <v>3</v>
-      </c>
-      <c r="G44" s="42">
-        <f t="shared" si="6"/>
+      <c r="E44" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="G44" s="48">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H44" s="1"/>
@@ -3456,25 +3191,25 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="27.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="41">
-        <v>1</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="42">
-        <f t="shared" si="6"/>
+      <c r="E45" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="F45" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="48">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H45" s="1"/>
@@ -3497,23 +3232,23 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="27.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41">
-        <v>1</v>
-      </c>
-      <c r="F46" s="22">
-        <v>5</v>
-      </c>
-      <c r="G46" s="42">
-        <f t="shared" si="6"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G46" s="48">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H46" s="1"/>
@@ -3536,25 +3271,25 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="27.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="42">
-        <v>1</v>
-      </c>
-      <c r="F47" s="22">
-        <v>5</v>
-      </c>
-      <c r="G47" s="42">
-        <f t="shared" si="6"/>
+      <c r="E47" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="F47" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G47" s="48">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H47" s="1"/>
@@ -3577,25 +3312,25 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="30.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="42">
-        <v>1</v>
-      </c>
-      <c r="F48" s="22">
-        <v>5</v>
-      </c>
-      <c r="G48" s="42">
-        <f t="shared" si="6"/>
+      <c r="E48" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="F48" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G48" s="48">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H48" s="1"/>
@@ -3618,25 +3353,25 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="31.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="41">
-        <v>1</v>
-      </c>
-      <c r="F49" s="22">
-        <v>4</v>
-      </c>
-      <c r="G49" s="42">
-        <f t="shared" si="6"/>
+      <c r="E49" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="F49" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="G49" s="48">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H49" s="1"/>
@@ -3659,16 +3394,16 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="30.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="45">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="51">
         <f>SUM(G37:G49)</f>
         <v>47</v>
       </c>
@@ -3692,16 +3427,16 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="27.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="37">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="43">
         <f>0.6+(0.01*G50)</f>
         <v>1.07</v>
       </c>
@@ -3725,9 +3460,9 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="27.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3753,14 +3488,14 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="27.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3781,26 +3516,26 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
+    <row r="54" ht="27.75" customHeight="1">
+      <c r="A54" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H54" s="1"/>
@@ -3823,71 +3558,71 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" ht="64.5" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="41">
+      <c r="D55" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="47">
         <v>1.5</v>
       </c>
-      <c r="F55" s="22">
-        <v>5</v>
-      </c>
-      <c r="G55" s="42">
-        <f t="shared" ref="G55:G62" si="7">E55*F55</f>
-        <v>7.5</v>
+      <c r="F55" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="G55" s="48">
+        <f t="shared" ref="G55:G62" si="8">E55*F55</f>
+        <v>4.5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-    </row>
-    <row r="56" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+    </row>
+    <row r="56" ht="51.0" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="39" t="s">
+      <c r="B56" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="41">
+      <c r="D56" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="47">
         <v>0.5</v>
       </c>
-      <c r="F56" s="22">
-        <v>5</v>
-      </c>
-      <c r="G56" s="42">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="H56" s="44" t="s">
+      <c r="F56" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="G56" s="48">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="H56" s="50" t="s">
         <v>58</v>
       </c>
       <c r="I56" s="1"/>
@@ -3909,26 +3644,26 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" ht="48.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="39" t="s">
+      <c r="B57" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="41">
-        <v>1</v>
-      </c>
-      <c r="F57" s="22">
-        <v>5</v>
-      </c>
-      <c r="G57" s="42">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="D57" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="F57" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="G57" s="48">
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3950,26 +3685,26 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" ht="46.5" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="39" t="s">
+      <c r="B58" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="41">
+      <c r="D58" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="47">
         <v>0.5</v>
       </c>
-      <c r="F58" s="22">
-        <v>5</v>
-      </c>
-      <c r="G58" s="42">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
+      <c r="F58" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="G58" s="48">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3991,26 +3726,26 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" ht="37.5" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="41">
-        <v>1</v>
-      </c>
-      <c r="F59" s="22">
-        <v>5</v>
-      </c>
-      <c r="G59" s="42">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="B59" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="F59" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="G59" s="48">
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4032,26 +3767,26 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" ht="43.5" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="41">
-        <v>2</v>
-      </c>
-      <c r="F60" s="22">
-        <v>5</v>
-      </c>
-      <c r="G60" s="42">
-        <f t="shared" si="7"/>
-        <v>10</v>
+      <c r="B60" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="F60" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="G60" s="48">
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4073,26 +3808,26 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" ht="71.25" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="41">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0</v>
-      </c>
-      <c r="G61" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="B61" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="47">
+        <v>-1.0</v>
+      </c>
+      <c r="F61" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="G61" s="48">
+        <f t="shared" si="8"/>
+        <v>-2</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4114,26 +3849,26 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="62.25" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="41">
-        <v>-1</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-      <c r="G62" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="B62" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="47">
+        <v>-1.0</v>
+      </c>
+      <c r="F62" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="G62" s="48">
+        <f t="shared" si="8"/>
+        <v>-4</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4155,18 +3890,18 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" ht="38.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="16">
+      <c r="B63" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="19">
         <f>SUM(G55:G62)</f>
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4188,18 +3923,18 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="27.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="16">
+      <c r="B64" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="19">
         <f>1.4 + (-0.03*G63)</f>
-        <v>0.42499999999999993</v>
+        <v>0.95</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4221,18 +3956,18 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" ht="27.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="16">
+      <c r="B65" s="29"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="19">
         <f>COUNTIF($F$55:$F$60,"&lt;3")+COUNTIF($F$61:$F$62,"&gt;3")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4254,9 +3989,9 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" ht="27.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4282,7 +4017,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" ht="27.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4310,20 +4045,20 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="52">
+    <row r="68" ht="27.75" customHeight="1">
+      <c r="A68" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="60">
         <f>F33*G51*G64</f>
-        <v>49.567749999999997</v>
+        <v>110.7985</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4345,7 +4080,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" ht="27.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4373,7 +4108,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" ht="27.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4401,23 +4136,23 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>107</v>
+    <row r="71" ht="27.75" customHeight="1">
+      <c r="A71" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="17" t="s">
-        <v>108</v>
+      <c r="G71" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4439,23 +4174,23 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" ht="31.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="54">
-        <v>20</v>
-      </c>
-      <c r="C72" s="54">
+      <c r="B72" s="62">
+        <v>20.0</v>
+      </c>
+      <c r="C72" s="62">
         <f>IF($G$65&gt;=5,36,IF(AND(G$65&gt;2,$G$65&lt;=4),28, IF(AND($G$65&gt;=0,$G$65&lt;=2),20,"error")))</f>
         <v>20</v>
       </c>
-      <c r="D72" s="55">
+      <c r="D72" s="63">
         <f>IF($G$65&gt;=5,$G$72*(36/20),IF(AND($G$65&gt;2,$G$65&lt;=4),$G$72*(28/20), IF(AND($G$65&gt;=0,$G$65&lt;=2),$G$72,"error")))</f>
         <v>2</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="56">
-        <v>2</v>
+      <c r="G72" s="64">
+        <v>2.0</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4477,13 +4212,13 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" ht="27.75" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="71"/>
+      <c r="B73" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="3"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -4507,21 +4242,21 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="54">
-        <f t="shared" ref="B74:D74" si="8">$G$68*B72</f>
-        <v>991.3549999999999</v>
-      </c>
-      <c r="C74" s="54">
-        <f t="shared" si="8"/>
-        <v>991.3549999999999</v>
-      </c>
-      <c r="D74" s="54">
-        <f t="shared" si="8"/>
-        <v>99.135499999999993</v>
+    <row r="74" ht="27.75" customHeight="1">
+      <c r="A74" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="62">
+        <f t="shared" ref="B74:D74" si="9">$G$68*B72</f>
+        <v>2215.97</v>
+      </c>
+      <c r="C74" s="62">
+        <f t="shared" si="9"/>
+        <v>2215.97</v>
+      </c>
+      <c r="D74" s="62">
+        <f t="shared" si="9"/>
+        <v>221.597</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="1"/>
@@ -4546,21 +4281,21 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="58">
-        <f t="shared" ref="B75:C75" si="9">B74/(22*8)</f>
-        <v>5.6326988636363629</v>
-      </c>
-      <c r="C75" s="58">
-        <f t="shared" si="9"/>
-        <v>5.6326988636363629</v>
-      </c>
-      <c r="D75" s="59">
+    <row r="75" ht="27.75" customHeight="1">
+      <c r="A75" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="67">
+        <f t="shared" ref="B75:C75" si="10">B74/(22*8)</f>
+        <v>12.59073864</v>
+      </c>
+      <c r="C75" s="67">
+        <f t="shared" si="10"/>
+        <v>12.59073864</v>
+      </c>
+      <c r="D75" s="68">
         <f>D74/(22*3)</f>
-        <v>1.5020530303030302</v>
+        <v>3.357530303</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="1"/>
@@ -4585,7 +4320,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" ht="27.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4613,7 +4348,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" ht="27.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4641,17 +4376,17 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="62"/>
+    <row r="78" ht="27.75" customHeight="1">
+      <c r="A78" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="70"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="71"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4673,22 +4408,22 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" ht="27.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="F79" s="52" t="s">
-        <v>118</v>
+      <c r="B79" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="60" t="s">
+        <v>126</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -4711,25 +4446,25 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" ht="27.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="64">
+      <c r="B80" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="73">
         <v>0.4</v>
       </c>
-      <c r="D80" s="58">
-        <f t="shared" ref="D80:F80" si="10">$C80/$C$80*B$75</f>
-        <v>5.6326988636363629</v>
-      </c>
-      <c r="E80" s="58">
-        <f t="shared" si="10"/>
-        <v>5.6326988636363629</v>
-      </c>
-      <c r="F80" s="58">
-        <f t="shared" si="10"/>
-        <v>1.5020530303030302</v>
+      <c r="D80" s="67">
+        <f t="shared" ref="D80:F80" si="11">$C80/$C$80*B$75</f>
+        <v>12.59073864</v>
+      </c>
+      <c r="E80" s="67">
+        <f t="shared" si="11"/>
+        <v>12.59073864</v>
+      </c>
+      <c r="F80" s="67">
+        <f t="shared" si="11"/>
+        <v>3.357530303</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -4752,26 +4487,26 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" ht="27.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="64">
+      <c r="B81" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="73">
         <f>1-C80</f>
         <v>0.6</v>
       </c>
-      <c r="D81" s="54">
-        <f t="shared" ref="D81:F81" si="11">$C81/$C$80*B$75</f>
-        <v>8.4490482954545438</v>
-      </c>
-      <c r="E81" s="54">
-        <f t="shared" si="11"/>
-        <v>8.4490482954545438</v>
-      </c>
-      <c r="F81" s="54">
-        <f t="shared" si="11"/>
-        <v>2.2530795454545447</v>
+      <c r="D81" s="62">
+        <f t="shared" ref="D81:F81" si="12">$C81/$C$80*B$75</f>
+        <v>18.88610795</v>
+      </c>
+      <c r="E81" s="62">
+        <f t="shared" si="12"/>
+        <v>18.88610795</v>
+      </c>
+      <c r="F81" s="62">
+        <f t="shared" si="12"/>
+        <v>5.036295455</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -4794,24 +4529,24 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="27.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="64">
+      <c r="B82" s="74"/>
+      <c r="C82" s="73">
         <f>SUM(C80:C81)</f>
         <v>1</v>
       </c>
-      <c r="D82" s="58">
-        <f t="shared" ref="D82:F82" si="12">$C82/$C$80*B$75</f>
-        <v>14.081747159090908</v>
-      </c>
-      <c r="E82" s="58">
-        <f t="shared" si="12"/>
-        <v>14.081747159090908</v>
-      </c>
-      <c r="F82" s="58">
-        <f t="shared" si="12"/>
-        <v>3.7551325757575755</v>
+      <c r="D82" s="67">
+        <f t="shared" ref="D82:F82" si="13">$C82/$C$80*B$75</f>
+        <v>31.47684659</v>
+      </c>
+      <c r="E82" s="67">
+        <f t="shared" si="13"/>
+        <v>31.47684659</v>
+      </c>
+      <c r="F82" s="67">
+        <f t="shared" si="13"/>
+        <v>8.393825758</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -4834,7 +4569,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" ht="27.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4862,12 +4597,12 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84" s="22">
-        <v>5</v>
+    <row r="84" ht="27.75" customHeight="1">
+      <c r="A84" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="25">
+        <v>5.0</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -4894,7 +4629,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" ht="27.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4922,18 +4657,18 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="52" t="s">
-        <v>125</v>
+    <row r="86" ht="27.75" customHeight="1">
+      <c r="A86" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>133</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="1"/>
@@ -4958,23 +4693,23 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="66"/>
-      <c r="B87" s="67">
+    <row r="87" ht="27.75" customHeight="1">
+      <c r="A87" s="75"/>
+      <c r="B87" s="76">
         <f>$D$82/$B$84</f>
-        <v>2.8163494318181814</v>
-      </c>
-      <c r="C87" s="67">
+        <v>6.295369318</v>
+      </c>
+      <c r="C87" s="76">
         <f>$E$82/$B$84</f>
-        <v>2.8163494318181814</v>
-      </c>
-      <c r="D87" s="67">
+        <v>6.295369318</v>
+      </c>
+      <c r="D87" s="76">
         <f>$F$82/$B$84</f>
-        <v>0.75102651515151508</v>
-      </c>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
+        <v>1.678765152</v>
+      </c>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -4995,455 +4730,455 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="66"/>
-      <c r="M88" s="66"/>
-      <c r="N88" s="66"/>
-      <c r="O88" s="66"/>
-      <c r="P88" s="66"/>
-      <c r="Q88" s="66"/>
-      <c r="R88" s="66"/>
-      <c r="S88" s="66"/>
-      <c r="T88" s="66"/>
-      <c r="U88" s="66"/>
-      <c r="V88" s="66"/>
-      <c r="W88" s="66"/>
-      <c r="X88" s="66"/>
-      <c r="Y88" s="66"/>
-      <c r="Z88" s="66"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
-      <c r="M89" s="66"/>
-      <c r="N89" s="66"/>
-      <c r="O89" s="66"/>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="66"/>
-      <c r="R89" s="66"/>
-      <c r="S89" s="66"/>
-      <c r="T89" s="66"/>
-      <c r="U89" s="66"/>
-      <c r="V89" s="66"/>
-      <c r="W89" s="66"/>
-      <c r="X89" s="66"/>
-      <c r="Y89" s="66"/>
-      <c r="Z89" s="66"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
-      <c r="O90" s="66"/>
-      <c r="P90" s="66"/>
-      <c r="Q90" s="66"/>
-      <c r="R90" s="66"/>
-      <c r="S90" s="66"/>
-      <c r="T90" s="66"/>
-      <c r="U90" s="66"/>
-      <c r="V90" s="66"/>
-      <c r="W90" s="66"/>
-      <c r="X90" s="66"/>
-      <c r="Y90" s="66"/>
-      <c r="Z90" s="66"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="66"/>
-      <c r="M91" s="66"/>
-      <c r="N91" s="66"/>
-      <c r="O91" s="66"/>
-      <c r="P91" s="66"/>
-      <c r="Q91" s="66"/>
-      <c r="R91" s="66"/>
-      <c r="S91" s="66"/>
-      <c r="T91" s="66"/>
-      <c r="U91" s="66"/>
-      <c r="V91" s="66"/>
-      <c r="W91" s="66"/>
-      <c r="X91" s="66"/>
-      <c r="Y91" s="66"/>
-      <c r="Z91" s="66"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="66"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="66"/>
-      <c r="M92" s="66"/>
-      <c r="N92" s="66"/>
-      <c r="O92" s="66"/>
-      <c r="P92" s="66"/>
-      <c r="Q92" s="66"/>
-      <c r="R92" s="66"/>
-      <c r="S92" s="66"/>
-      <c r="T92" s="66"/>
-      <c r="U92" s="66"/>
-      <c r="V92" s="66"/>
-      <c r="W92" s="66"/>
-      <c r="X92" s="66"/>
-      <c r="Y92" s="66"/>
-      <c r="Z92" s="66"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
-      <c r="L93" s="66"/>
-      <c r="M93" s="66"/>
-      <c r="N93" s="66"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="66"/>
-      <c r="R93" s="66"/>
-      <c r="S93" s="66"/>
-      <c r="T93" s="66"/>
-      <c r="U93" s="66"/>
-      <c r="V93" s="66"/>
-      <c r="W93" s="66"/>
-      <c r="X93" s="66"/>
-      <c r="Y93" s="66"/>
-      <c r="Z93" s="66"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="66"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="66"/>
-      <c r="L94" s="66"/>
-      <c r="M94" s="66"/>
-      <c r="N94" s="66"/>
-      <c r="O94" s="66"/>
-      <c r="P94" s="66"/>
-      <c r="Q94" s="66"/>
-      <c r="R94" s="66"/>
-      <c r="S94" s="66"/>
-      <c r="T94" s="66"/>
-      <c r="U94" s="66"/>
-      <c r="V94" s="66"/>
-      <c r="W94" s="66"/>
-      <c r="X94" s="66"/>
-      <c r="Y94" s="66"/>
-      <c r="Z94" s="66"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="66"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="66"/>
-      <c r="M95" s="66"/>
-      <c r="N95" s="66"/>
-      <c r="O95" s="66"/>
-      <c r="P95" s="66"/>
-      <c r="Q95" s="66"/>
-      <c r="R95" s="66"/>
-      <c r="S95" s="66"/>
-      <c r="T95" s="66"/>
-      <c r="U95" s="66"/>
-      <c r="V95" s="66"/>
-      <c r="W95" s="66"/>
-      <c r="X95" s="66"/>
-      <c r="Y95" s="66"/>
-      <c r="Z95" s="66"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="66"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="66"/>
-      <c r="M96" s="66"/>
-      <c r="N96" s="66"/>
-      <c r="O96" s="66"/>
-      <c r="P96" s="66"/>
-      <c r="Q96" s="66"/>
-      <c r="R96" s="66"/>
-      <c r="S96" s="66"/>
-      <c r="T96" s="66"/>
-      <c r="U96" s="66"/>
-      <c r="V96" s="66"/>
-      <c r="W96" s="66"/>
-      <c r="X96" s="66"/>
-      <c r="Y96" s="66"/>
-      <c r="Z96" s="66"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="66"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="66"/>
-      <c r="M97" s="66"/>
-      <c r="N97" s="66"/>
-      <c r="O97" s="66"/>
-      <c r="P97" s="66"/>
-      <c r="Q97" s="66"/>
-      <c r="R97" s="66"/>
-      <c r="S97" s="66"/>
-      <c r="T97" s="66"/>
-      <c r="U97" s="66"/>
-      <c r="V97" s="66"/>
-      <c r="W97" s="66"/>
-      <c r="X97" s="66"/>
-      <c r="Y97" s="66"/>
-      <c r="Z97" s="66"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="66"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="66"/>
-      <c r="M98" s="66"/>
-      <c r="N98" s="66"/>
-      <c r="O98" s="66"/>
-      <c r="P98" s="66"/>
-      <c r="Q98" s="66"/>
-      <c r="R98" s="66"/>
-      <c r="S98" s="66"/>
-      <c r="T98" s="66"/>
-      <c r="U98" s="66"/>
-      <c r="V98" s="66"/>
-      <c r="W98" s="66"/>
-      <c r="X98" s="66"/>
-      <c r="Y98" s="66"/>
-      <c r="Z98" s="66"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="66"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="66"/>
-      <c r="M99" s="66"/>
-      <c r="N99" s="66"/>
-      <c r="O99" s="66"/>
-      <c r="P99" s="66"/>
-      <c r="Q99" s="66"/>
-      <c r="R99" s="66"/>
-      <c r="S99" s="66"/>
-      <c r="T99" s="66"/>
-      <c r="U99" s="66"/>
-      <c r="V99" s="66"/>
-      <c r="W99" s="66"/>
-      <c r="X99" s="66"/>
-      <c r="Y99" s="66"/>
-      <c r="Z99" s="66"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="66"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
-      <c r="L100" s="66"/>
-      <c r="M100" s="66"/>
-      <c r="N100" s="66"/>
-      <c r="O100" s="66"/>
-      <c r="P100" s="66"/>
-      <c r="Q100" s="66"/>
-      <c r="R100" s="66"/>
-      <c r="S100" s="66"/>
-      <c r="T100" s="66"/>
-      <c r="U100" s="66"/>
-      <c r="V100" s="66"/>
-      <c r="W100" s="66"/>
-      <c r="X100" s="66"/>
-      <c r="Y100" s="66"/>
-      <c r="Z100" s="66"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="66"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="66"/>
-      <c r="M101" s="66"/>
-      <c r="N101" s="66"/>
-      <c r="O101" s="66"/>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="66"/>
-      <c r="R101" s="66"/>
-      <c r="S101" s="66"/>
-      <c r="T101" s="66"/>
-      <c r="U101" s="66"/>
-      <c r="V101" s="66"/>
-      <c r="W101" s="66"/>
-      <c r="X101" s="66"/>
-      <c r="Y101" s="66"/>
-      <c r="Z101" s="66"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="66"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="66"/>
-      <c r="M102" s="66"/>
-      <c r="N102" s="66"/>
-      <c r="O102" s="66"/>
-      <c r="P102" s="66"/>
-      <c r="Q102" s="66"/>
-      <c r="R102" s="66"/>
-      <c r="S102" s="66"/>
-      <c r="T102" s="66"/>
-      <c r="U102" s="66"/>
-      <c r="V102" s="66"/>
-      <c r="W102" s="66"/>
-      <c r="X102" s="66"/>
-      <c r="Y102" s="66"/>
-      <c r="Z102" s="66"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="66"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="66"/>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="66"/>
-      <c r="Q103" s="66"/>
-      <c r="R103" s="66"/>
-      <c r="S103" s="66"/>
-      <c r="T103" s="66"/>
-      <c r="U103" s="66"/>
-      <c r="V103" s="66"/>
-      <c r="W103" s="66"/>
-      <c r="X103" s="66"/>
-      <c r="Y103" s="66"/>
-      <c r="Z103" s="66"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" ht="27.75" customHeight="1">
+      <c r="A88" s="75"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="75"/>
+      <c r="O88" s="75"/>
+      <c r="P88" s="75"/>
+      <c r="Q88" s="75"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="75"/>
+      <c r="T88" s="75"/>
+      <c r="U88" s="75"/>
+      <c r="V88" s="75"/>
+      <c r="W88" s="75"/>
+      <c r="X88" s="75"/>
+      <c r="Y88" s="75"/>
+      <c r="Z88" s="75"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="75"/>
+      <c r="Q89" s="75"/>
+      <c r="R89" s="75"/>
+      <c r="S89" s="75"/>
+      <c r="T89" s="75"/>
+      <c r="U89" s="75"/>
+      <c r="V89" s="75"/>
+      <c r="W89" s="75"/>
+      <c r="X89" s="75"/>
+      <c r="Y89" s="75"/>
+      <c r="Z89" s="75"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="75"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="75"/>
+      <c r="Q90" s="75"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="75"/>
+      <c r="T90" s="75"/>
+      <c r="U90" s="75"/>
+      <c r="V90" s="75"/>
+      <c r="W90" s="75"/>
+      <c r="X90" s="75"/>
+      <c r="Y90" s="75"/>
+      <c r="Z90" s="75"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="75"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
+      <c r="O91" s="75"/>
+      <c r="P91" s="75"/>
+      <c r="Q91" s="75"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="75"/>
+      <c r="T91" s="75"/>
+      <c r="U91" s="75"/>
+      <c r="V91" s="75"/>
+      <c r="W91" s="75"/>
+      <c r="X91" s="75"/>
+      <c r="Y91" s="75"/>
+      <c r="Z91" s="75"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="75"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
+      <c r="O92" s="75"/>
+      <c r="P92" s="75"/>
+      <c r="Q92" s="75"/>
+      <c r="R92" s="75"/>
+      <c r="S92" s="75"/>
+      <c r="T92" s="75"/>
+      <c r="U92" s="75"/>
+      <c r="V92" s="75"/>
+      <c r="W92" s="75"/>
+      <c r="X92" s="75"/>
+      <c r="Y92" s="75"/>
+      <c r="Z92" s="75"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="75"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
+      <c r="Q93" s="75"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="75"/>
+      <c r="T93" s="75"/>
+      <c r="U93" s="75"/>
+      <c r="V93" s="75"/>
+      <c r="W93" s="75"/>
+      <c r="X93" s="75"/>
+      <c r="Y93" s="75"/>
+      <c r="Z93" s="75"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="75"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="75"/>
+      <c r="Q94" s="75"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="75"/>
+      <c r="T94" s="75"/>
+      <c r="U94" s="75"/>
+      <c r="V94" s="75"/>
+      <c r="W94" s="75"/>
+      <c r="X94" s="75"/>
+      <c r="Y94" s="75"/>
+      <c r="Z94" s="75"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="75"/>
+      <c r="P95" s="75"/>
+      <c r="Q95" s="75"/>
+      <c r="R95" s="75"/>
+      <c r="S95" s="75"/>
+      <c r="T95" s="75"/>
+      <c r="U95" s="75"/>
+      <c r="V95" s="75"/>
+      <c r="W95" s="75"/>
+      <c r="X95" s="75"/>
+      <c r="Y95" s="75"/>
+      <c r="Z95" s="75"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="75"/>
+      <c r="P96" s="75"/>
+      <c r="Q96" s="75"/>
+      <c r="R96" s="75"/>
+      <c r="S96" s="75"/>
+      <c r="T96" s="75"/>
+      <c r="U96" s="75"/>
+      <c r="V96" s="75"/>
+      <c r="W96" s="75"/>
+      <c r="X96" s="75"/>
+      <c r="Y96" s="75"/>
+      <c r="Z96" s="75"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="75"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="75"/>
+      <c r="P97" s="75"/>
+      <c r="Q97" s="75"/>
+      <c r="R97" s="75"/>
+      <c r="S97" s="75"/>
+      <c r="T97" s="75"/>
+      <c r="U97" s="75"/>
+      <c r="V97" s="75"/>
+      <c r="W97" s="75"/>
+      <c r="X97" s="75"/>
+      <c r="Y97" s="75"/>
+      <c r="Z97" s="75"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="75"/>
+      <c r="O98" s="75"/>
+      <c r="P98" s="75"/>
+      <c r="Q98" s="75"/>
+      <c r="R98" s="75"/>
+      <c r="S98" s="75"/>
+      <c r="T98" s="75"/>
+      <c r="U98" s="75"/>
+      <c r="V98" s="75"/>
+      <c r="W98" s="75"/>
+      <c r="X98" s="75"/>
+      <c r="Y98" s="75"/>
+      <c r="Z98" s="75"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
+      <c r="O99" s="75"/>
+      <c r="P99" s="75"/>
+      <c r="Q99" s="75"/>
+      <c r="R99" s="75"/>
+      <c r="S99" s="75"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="75"/>
+      <c r="V99" s="75"/>
+      <c r="W99" s="75"/>
+      <c r="X99" s="75"/>
+      <c r="Y99" s="75"/>
+      <c r="Z99" s="75"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="75"/>
+      <c r="P100" s="75"/>
+      <c r="Q100" s="75"/>
+      <c r="R100" s="75"/>
+      <c r="S100" s="75"/>
+      <c r="T100" s="75"/>
+      <c r="U100" s="75"/>
+      <c r="V100" s="75"/>
+      <c r="W100" s="75"/>
+      <c r="X100" s="75"/>
+      <c r="Y100" s="75"/>
+      <c r="Z100" s="75"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="75"/>
+      <c r="N101" s="75"/>
+      <c r="O101" s="75"/>
+      <c r="P101" s="75"/>
+      <c r="Q101" s="75"/>
+      <c r="R101" s="75"/>
+      <c r="S101" s="75"/>
+      <c r="T101" s="75"/>
+      <c r="U101" s="75"/>
+      <c r="V101" s="75"/>
+      <c r="W101" s="75"/>
+      <c r="X101" s="75"/>
+      <c r="Y101" s="75"/>
+      <c r="Z101" s="75"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="75"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="75"/>
+      <c r="O102" s="75"/>
+      <c r="P102" s="75"/>
+      <c r="Q102" s="75"/>
+      <c r="R102" s="75"/>
+      <c r="S102" s="75"/>
+      <c r="T102" s="75"/>
+      <c r="U102" s="75"/>
+      <c r="V102" s="75"/>
+      <c r="W102" s="75"/>
+      <c r="X102" s="75"/>
+      <c r="Y102" s="75"/>
+      <c r="Z102" s="75"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="75"/>
+      <c r="O103" s="75"/>
+      <c r="P103" s="75"/>
+      <c r="Q103" s="75"/>
+      <c r="R103" s="75"/>
+      <c r="S103" s="75"/>
+      <c r="T103" s="75"/>
+      <c r="U103" s="75"/>
+      <c r="V103" s="75"/>
+      <c r="W103" s="75"/>
+      <c r="X103" s="75"/>
+      <c r="Y103" s="75"/>
+      <c r="Z103" s="75"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5451,27 +5186,27 @@
       <c r="E104" s="3"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
-      <c r="N104" s="66"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66"/>
-      <c r="S104" s="66"/>
-      <c r="T104" s="66"/>
-      <c r="U104" s="66"/>
-      <c r="V104" s="66"/>
-      <c r="W104" s="66"/>
-      <c r="X104" s="66"/>
-      <c r="Y104" s="66"/>
-      <c r="Z104" s="66"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
+      <c r="W104" s="75"/>
+      <c r="X104" s="75"/>
+      <c r="Y104" s="75"/>
+      <c r="Z104" s="75"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5499,7 +5234,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5527,7 +5262,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5555,7 +5290,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5583,7 +5318,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5611,7 +5346,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5639,7 +5374,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5667,7 +5402,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5695,7 +5430,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5723,7 +5458,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5751,7 +5486,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5779,7 +5514,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5807,7 +5542,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5835,7 +5570,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5863,7 +5598,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5891,7 +5626,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5919,7 +5654,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5947,7 +5682,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5975,7 +5710,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6003,7 +5738,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6031,7 +5766,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6059,7 +5794,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6087,7 +5822,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6115,7 +5850,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6143,7 +5878,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6171,7 +5906,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6199,7 +5934,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6227,7 +5962,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6255,7 +5990,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6283,7 +6018,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6311,7 +6046,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6339,7 +6074,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6367,7 +6102,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6395,7 +6130,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6423,7 +6158,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6451,7 +6186,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6479,7 +6214,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6507,7 +6242,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6535,7 +6270,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6563,7 +6298,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6591,7 +6326,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6619,7 +6354,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6647,7 +6382,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6675,7 +6410,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6703,7 +6438,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6731,7 +6466,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6759,7 +6494,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6787,7 +6522,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6815,7 +6550,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6843,7 +6578,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6871,7 +6606,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6899,7 +6634,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6927,7 +6662,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6955,7 +6690,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6983,7 +6718,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7011,7 +6746,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7039,7 +6774,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7067,7 +6802,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7095,7 +6830,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7123,7 +6858,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7151,7 +6886,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7179,7 +6914,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7207,7 +6942,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7235,7 +6970,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7263,7 +6998,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7291,7 +7026,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7319,7 +7054,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7347,7 +7082,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7375,7 +7110,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7403,7 +7138,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7431,7 +7166,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7459,7 +7194,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7487,7 +7222,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7515,7 +7250,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7543,7 +7278,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7571,7 +7306,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7599,7 +7334,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7627,7 +7362,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7655,7 +7390,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7683,7 +7418,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7711,7 +7446,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7739,7 +7474,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7767,7 +7502,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7795,7 +7530,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7823,7 +7558,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7851,7 +7586,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7879,7 +7614,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7907,7 +7642,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7935,7 +7670,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7963,7 +7698,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7991,7 +7726,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8019,7 +7754,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8047,7 +7782,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8075,7 +7810,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8103,7 +7838,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8131,7 +7866,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8159,7 +7894,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8187,7 +7922,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8215,7 +7950,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8243,7 +7978,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8271,7 +8006,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8299,7 +8034,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8327,7 +8062,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8355,7 +8090,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8383,7 +8118,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8411,7 +8146,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8439,7 +8174,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8467,7 +8202,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8495,7 +8230,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8523,7 +8258,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8551,7 +8286,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8579,7 +8314,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8607,7 +8342,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8635,7 +8370,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8663,7 +8398,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8691,7 +8426,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8719,7 +8454,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8747,7 +8482,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8775,7 +8510,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8803,7 +8538,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8831,7 +8566,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8859,7 +8594,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8887,7 +8622,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8915,7 +8650,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8943,7 +8678,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8971,7 +8706,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8999,7 +8734,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9027,7 +8762,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9055,7 +8790,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9083,7 +8818,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9111,7 +8846,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9139,7 +8874,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9167,7 +8902,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9195,7 +8930,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9223,7 +8958,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9251,7 +8986,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9279,7 +9014,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9307,7 +9042,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9335,7 +9070,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9363,7 +9098,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9391,7 +9126,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9419,7 +9154,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9447,7 +9182,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9475,7 +9210,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9503,7 +9238,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9531,7 +9266,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9559,7 +9294,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9587,7 +9322,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9615,7 +9350,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9643,7 +9378,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9671,7 +9406,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9699,7 +9434,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9727,7 +9462,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9755,7 +9490,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9783,7 +9518,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9811,7 +9546,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -9839,7 +9574,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9867,7 +9602,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9895,7 +9630,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9923,7 +9658,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9951,7 +9686,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9979,7 +9714,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10007,7 +9742,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10035,7 +9770,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10063,7 +9798,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10091,7 +9826,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10119,7 +9854,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10147,7 +9882,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10175,7 +9910,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10203,7 +9938,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10231,7 +9966,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10259,7 +9994,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10287,7 +10022,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10315,7 +10050,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10343,7 +10078,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10371,7 +10106,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10399,7 +10134,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10427,7 +10162,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10455,7 +10190,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10483,7 +10218,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10511,7 +10246,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10539,7 +10274,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10567,7 +10302,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10595,719 +10330,719 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B64:F64"/>
@@ -11321,22 +11056,23 @@
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="B63:F63"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C11">
       <formula1>"Simple,Intermedio,Complejo"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entre 1 y 9 personas." sqref="B84" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>1</formula1>
-      <formula2>9</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entre 1 y 9 personas." sqref="B84">
+      <formula1>1.0</formula1>
+      <formula2>9.0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H38" r:id="rId1" location="v=onepage&amp;q=e7%20part-time%20members&amp;f=false" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H56" r:id="rId2" location="v=onepage&amp;q=e7%20part-time%20members&amp;f=false" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId2" location="v=onepage&amp;q=e7%20part-time%20members&amp;f=false" ref="H38"/>
+    <hyperlink r:id="rId3" location="v=onepage&amp;q=e7%20part-time%20members&amp;f=false" ref="H56"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>